--- a/Solution_Grand_Cases.xlsx
+++ b/Solution_Grand_Cases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS11_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\GitHub\OS11_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1DC71-46AD-428E-9011-1CF2BDC424A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -302,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +383,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.99476238426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75" xr:uid="{01A59433-04CF-41FB-BF92-863CCF4C5FD0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.99476238426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:H76" sheet="Sheet1"/>
   </cacheSource>
@@ -1110,7 +1109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D93FE258-72B3-4E07-8B1D-5A922E97FE87}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1506,25 +1505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2639,7 +2638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3503,21 +3502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124E5A39-83D5-4295-8F1A-E95C54110A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -3528,14 +3527,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>81.088223559281332</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>156.10989718784663</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>146.14479121747735</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>187.87628908406722</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -3590,14 +3589,14 @@
         <v>81.088223559281332</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>116.4624402972907</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>158.47460364361282</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>169.02455442923022</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>151.81798312453037</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3652,14 +3651,14 @@
         <v>116.4624402972907</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>148.9244775045392</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>150.92282796184341</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>157.15374637596079</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>109.39149875561628</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>

--- a/Solution_Grand_Cases.xlsx
+++ b/Solution_Grand_Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\GitHub\OS11_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS11_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BE90B4-86DB-4A84-B6A2-915A78C5ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -301,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -364,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.99476238426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.99476238426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:H76" sheet="Sheet1"/>
   </cacheSource>
@@ -1109,7 +1109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1505,25 +1505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3502,21 +3502,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -3527,189 +3527,183 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>477.6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>81.088223559281332</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>944.4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>156.10989718784663</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>1004.6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>146.14479121747735</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>1696</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>187.87628908406722</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>477.6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>81.088223559281332</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>1535</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>116.4624402972907</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>1704.8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>158.47460364361282</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1795.4</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>169.02455442923022</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>1858.8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>151.81798312453037</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1535</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>116.4624402972907</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1647</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>148.9244775045392</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>1794.8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>150.92282796184341</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>1843.4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>157.15374637596079</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>1903</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>109.39149875561628</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1647</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>148.9244775045392</v>
       </c>
     </row>
